--- a/data/trans_orig/IP2902-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2902-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE7DBD1-4989-4841-9CF6-51FBD961CC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6972A3-EADD-41E3-A5A2-3DEF6F6FA7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CBD36589-526F-45C0-8AEC-195DFF6AC9F7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0ADA42D3-340E-4688-A7B5-5D836488FE21}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="550">
   <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2007 (Tasa respuesta: 97,01%)</t>
   </si>
@@ -68,13 +68,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>Solo biberon</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>0,6%</t>
@@ -86,192 +362,180 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>Solo biberon</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
@@ -281,265 +545,82 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -551,262 +632,430 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
   </si>
   <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -815,252 +1064,6 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
     <t>55,99%</t>
   </si>
   <si>
@@ -1142,6 +1145,237 @@
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2015 (Tasa respuesta: 97,51%)</t>
   </si>
   <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -1151,160 +1385,79 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>68,52%</t>
@@ -1385,156 +1538,6 @@
     <t>19,1%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
     <t>64,91%</t>
   </si>
   <si>
@@ -1610,9 +1613,42 @@
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>99,44%</t>
   </si>
   <si>
@@ -1622,22 +1658,19 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>99,2%</t>
@@ -1646,46 +1679,16 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
     <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5256BE-0848-4C4E-AE6D-55A087F67122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF255A-CACC-43C7-A36D-F971194F6C56}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2191,203 +2194,203 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>16239</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>16171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>32410</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>121847</v>
+        <v>4042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>119610</v>
+        <v>1858</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>241457</v>
+        <v>5900</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>27859</v>
+        <v>2722</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>25579</v>
+        <v>4695</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>53438</v>
+        <v>7417</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>59007</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>44856</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>103864</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>44</v>
@@ -2399,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>208713</v>
+        <v>23003</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -2414,10 +2417,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>190045</v>
+        <v>22724</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2429,10 +2432,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>621</v>
+        <v>59</v>
       </c>
       <c r="N8" s="7">
-        <v>398758</v>
+        <v>45727</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -2448,206 +2451,206 @@
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="5">
-        <v>994</v>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>70850</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>71452</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>142302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>70850</v>
+        <v>20225</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>71452</v>
+        <v>18250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>142302</v>
+        <v>38474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>20225</v>
+        <v>32336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>18250</v>
+        <v>23588</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="N11" s="7">
-        <v>38474</v>
+        <v>55924</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>32336</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>23588</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>55924</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,205 +2706,205 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="5">
-        <v>994</v>
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>121847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>119610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>241457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>129243</v>
+        <v>27859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>131515</v>
+        <v>25579</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="7">
         <v>84</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="7">
-        <v>363</v>
-      </c>
       <c r="N15" s="7">
-        <v>260758</v>
+        <v>53438</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>21146</v>
+        <v>59007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>16629</v>
+        <v>44856</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="N16" s="7">
-        <v>37775</v>
+        <v>103864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>47414</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>50180</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>97594</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>106</v>
@@ -2913,10 +2916,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="D18" s="7">
-        <v>197803</v>
+        <v>208713</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -2928,10 +2931,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="I18" s="7">
-        <v>198324</v>
+        <v>190045</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -2943,10 +2946,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="N18" s="7">
-        <v>396127</v>
+        <v>398758</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -2962,203 +2965,203 @@
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>93972</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>83740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>177712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>16239</v>
+        <v>18863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>16171</v>
+        <v>16002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N20" s="7">
-        <v>32410</v>
+        <v>34865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>4042</v>
+        <v>33530</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="I21" s="7">
-        <v>1858</v>
+        <v>36872</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="N21" s="7">
-        <v>5900</v>
+        <v>70402</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>2722</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>4695</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>7417</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>136</v>
@@ -3170,10 +3173,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="D23" s="7">
-        <v>23003</v>
+        <v>146365</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>45</v>
@@ -3185,10 +3188,10 @@
         <v>45</v>
       </c>
       <c r="H23" s="7">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="I23" s="7">
-        <v>22724</v>
+        <v>136614</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -3200,10 +3203,10 @@
         <v>45</v>
       </c>
       <c r="M23" s="7">
-        <v>59</v>
+        <v>454</v>
       </c>
       <c r="N23" s="7">
-        <v>45727</v>
+        <v>282979</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>45</v>
@@ -3219,206 +3222,206 @@
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>129243</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>131515</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>260758</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>93972</v>
+        <v>21146</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>83740</v>
+        <v>16629</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="N25" s="7">
-        <v>177712</v>
+        <v>37775</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7">
-        <v>18863</v>
+        <v>47414</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I26" s="7">
-        <v>16002</v>
+        <v>50180</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="N26" s="7">
-        <v>34865</v>
+        <v>97594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>33530</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H27" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>36872</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M27" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>70402</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,10 +3430,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="D28" s="7">
-        <v>146365</v>
+        <v>197803</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>45</v>
@@ -3442,10 +3445,10 @@
         <v>45</v>
       </c>
       <c r="H28" s="7">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="I28" s="7">
-        <v>136614</v>
+        <v>198324</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -3457,10 +3460,10 @@
         <v>45</v>
       </c>
       <c r="M28" s="7">
-        <v>454</v>
+        <v>550</v>
       </c>
       <c r="N28" s="7">
-        <v>282979</v>
+        <v>396127</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>45</v>
@@ -3476,206 +3479,206 @@
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5">
-        <v>994</v>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>432150</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>422489</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>854639</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>652</v>
+        <v>136</v>
       </c>
       <c r="D30" s="7">
-        <v>432150</v>
+        <v>92135</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
-        <v>629</v>
+        <v>119</v>
       </c>
       <c r="I30" s="7">
-        <v>422489</v>
+        <v>78317</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M30" s="7">
-        <v>1281</v>
+        <v>255</v>
       </c>
       <c r="N30" s="7">
-        <v>854639</v>
+        <v>170451</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="D31" s="7">
-        <v>92135</v>
+        <v>175009</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="I31" s="7">
-        <v>78317</v>
+        <v>160191</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7">
-        <v>255</v>
+        <v>505</v>
       </c>
       <c r="N31" s="7">
-        <v>170451</v>
+        <v>335200</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>175009</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>160191</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>335200</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,7 +3750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A032E4EF-B3CE-4592-9556-B4A5E8F6B858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C527CB-2780-4BAA-B5D2-0798940A079C}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3764,7 +3767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3861,203 +3864,203 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>19073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>15625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>34697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>130427</v>
+        <v>1352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>118075</v>
+        <v>1522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
-        <v>371</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>248501</v>
+        <v>2874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>18790</v>
+        <v>5030</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22389</v>
+        <v>5227</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>41179</v>
+        <v>10257</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>70267</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>61864</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>132131</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>225</v>
@@ -4069,10 +4072,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>219485</v>
+        <v>25455</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -4084,10 +4087,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>202328</v>
+        <v>22373</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -4099,10 +4102,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>631</v>
+        <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>421812</v>
+        <v>47828</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -4118,203 +4121,203 @@
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="5">
-        <v>994</v>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>75697</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>81724</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>157420</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>75697</v>
+        <v>13448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>81724</v>
+        <v>7067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>157420</v>
+        <v>20515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>13448</v>
+        <v>35098</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>7067</v>
+        <v>26866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>20515</v>
+        <v>61964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>35098</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>26866</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>61964</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>255</v>
@@ -4373,208 +4376,208 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="5">
-        <v>994</v>
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>130427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>118075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>248501</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>94478</v>
+        <v>18790</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H15" s="7">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="I15" s="7">
-        <v>116151</v>
+        <v>22389</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M15" s="7">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="N15" s="7">
-        <v>210629</v>
+        <v>41179</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D16" s="7">
-        <v>35834</v>
+        <v>70267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>31927</v>
+        <v>61864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N16" s="7">
-        <v>67760</v>
+        <v>132131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>76052</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>60741</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>136793</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,10 +4586,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="D18" s="7">
-        <v>206364</v>
+        <v>219485</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -4598,10 +4601,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="I18" s="7">
-        <v>208818</v>
+        <v>202328</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -4613,10 +4616,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>553</v>
+        <v>631</v>
       </c>
       <c r="N18" s="7">
-        <v>415182</v>
+        <v>421812</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -4632,206 +4635,206 @@
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>94144</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>88202</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>182346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D20" s="7">
-        <v>19073</v>
+        <v>22096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I20" s="7">
-        <v>15625</v>
+        <v>18121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="N20" s="7">
-        <v>34697</v>
+        <v>40217</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7">
-        <v>1352</v>
+        <v>47363</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="I21" s="7">
-        <v>1522</v>
+        <v>46857</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="N21" s="7">
-        <v>2874</v>
+        <v>94220</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>5030</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>5227</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>10257</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>309</v>
+        <v>25</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,10 +4843,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="D23" s="7">
-        <v>25455</v>
+        <v>163603</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>45</v>
@@ -4855,10 +4858,10 @@
         <v>45</v>
       </c>
       <c r="H23" s="7">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="I23" s="7">
-        <v>22373</v>
+        <v>153180</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -4870,10 +4873,10 @@
         <v>45</v>
       </c>
       <c r="M23" s="7">
-        <v>54</v>
+        <v>491</v>
       </c>
       <c r="N23" s="7">
-        <v>47828</v>
+        <v>316783</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>45</v>
@@ -4889,206 +4892,206 @@
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>94478</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>116151</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>317</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>210629</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7">
-        <v>94144</v>
+        <v>35834</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H25" s="7">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="I25" s="7">
-        <v>88202</v>
+        <v>31927</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
-        <v>278</v>
+        <v>90</v>
       </c>
       <c r="N25" s="7">
-        <v>182346</v>
+        <v>67760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D26" s="7">
-        <v>22096</v>
+        <v>76052</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I26" s="7">
-        <v>18121</v>
+        <v>60741</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M26" s="7">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="N26" s="7">
-        <v>40217</v>
+        <v>136793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>47363</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>332</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H27" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>46857</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>335</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="M27" s="7">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>94220</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>339</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,10 +5100,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D28" s="7">
-        <v>163603</v>
+        <v>206364</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>45</v>
@@ -5112,10 +5115,10 @@
         <v>45</v>
       </c>
       <c r="H28" s="7">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="I28" s="7">
-        <v>153180</v>
+        <v>208818</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -5127,10 +5130,10 @@
         <v>45</v>
       </c>
       <c r="M28" s="7">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="N28" s="7">
-        <v>316783</v>
+        <v>415182</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>45</v>
@@ -5146,206 +5149,206 @@
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5">
-        <v>994</v>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>413819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>419776</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>833594</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>586</v>
+        <v>132</v>
       </c>
       <c r="D30" s="7">
-        <v>413819</v>
+        <v>91520</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H30" s="7">
-        <v>601</v>
+        <v>117</v>
       </c>
       <c r="I30" s="7">
-        <v>419776</v>
+        <v>81025</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M30" s="7">
-        <v>1187</v>
+        <v>249</v>
       </c>
       <c r="N30" s="7">
-        <v>833594</v>
+        <v>172545</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="D31" s="7">
-        <v>91520</v>
+        <v>233811</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="H31" s="7">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="I31" s="7">
-        <v>81025</v>
+        <v>201554</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="M31" s="7">
-        <v>249</v>
+        <v>631</v>
       </c>
       <c r="N31" s="7">
-        <v>172545</v>
+        <v>435365</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>233811</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>357</v>
+        <v>25</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>358</v>
+        <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>201554</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>362</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>435365</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>363</v>
+        <v>25</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,7 +5420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65ECCD5-99F9-45D0-BDA8-10B993C7B1D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD471BCD-8674-43CF-A315-6A9A96283621}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5434,7 +5437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5531,206 +5534,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>18588</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>12289</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>30878</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>141032</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>137984</v>
+        <v>2702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
-        <v>429</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>279016</v>
+        <v>2702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>37990</v>
+        <v>6986</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>384</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H6" s="7">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>27719</v>
+        <v>7536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M6" s="7">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>65709</v>
+        <v>14521</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>40707</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>39200</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>390</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M7" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>79907</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,10 +5742,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>219728</v>
+        <v>25574</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -5754,10 +5757,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>204904</v>
+        <v>22527</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -5769,10 +5772,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>655</v>
+        <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>424632</v>
+        <v>48101</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -5788,206 +5791,206 @@
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="5">
-        <v>994</v>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>76123</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>395</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>70443</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>146566</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>399</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>76123</v>
+        <v>18488</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>70443</v>
+        <v>15558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>146566</v>
+        <v>34046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>18488</v>
+        <v>23926</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>15558</v>
+        <v>21916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>34046</v>
+        <v>45841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>23926</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>413</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>414</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>21916</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M12" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>45841</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>25</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,205 +6046,205 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="5">
-        <v>994</v>
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>141032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>422</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>424</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>279016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7">
-        <v>136194</v>
+        <v>37990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>423</v>
+        <v>185</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H15" s="7">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>130615</v>
+        <v>27719</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="M15" s="7">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="N15" s="7">
-        <v>266809</v>
+        <v>65709</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>33392</v>
+        <v>40707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>37047</v>
+        <v>39200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N16" s="7">
-        <v>70439</v>
+        <v>79907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>29190</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>441</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>33769</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>62958</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>447</v>
@@ -6253,10 +6256,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="D18" s="7">
-        <v>198776</v>
+        <v>219728</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -6268,10 +6271,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="I18" s="7">
-        <v>201431</v>
+        <v>204904</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -6283,10 +6286,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>553</v>
+        <v>655</v>
       </c>
       <c r="N18" s="7">
-        <v>400206</v>
+        <v>424632</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -6302,206 +6305,206 @@
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>98059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>448</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>450</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>92388</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>451</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>452</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>190446</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>454</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>18588</v>
+        <v>25878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I20" s="7">
-        <v>12289</v>
+        <v>24521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M20" s="7">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="N20" s="7">
-        <v>30878</v>
+        <v>50399</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>37541</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>465</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>467</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="I21" s="7">
-        <v>2702</v>
+        <v>35442</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="M21" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="N21" s="7">
-        <v>2702</v>
+        <v>72983</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>6986</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>464</v>
+        <v>25</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>465</v>
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>466</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>7536</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>467</v>
+        <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>468</v>
+        <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>469</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>14521</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>470</v>
+        <v>25</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>471</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>472</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,10 +6513,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="D23" s="7">
-        <v>25574</v>
+        <v>161477</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>45</v>
@@ -6525,10 +6528,10 @@
         <v>45</v>
       </c>
       <c r="H23" s="7">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="I23" s="7">
-        <v>22527</v>
+        <v>152351</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -6540,10 +6543,10 @@
         <v>45</v>
       </c>
       <c r="M23" s="7">
-        <v>54</v>
+        <v>493</v>
       </c>
       <c r="N23" s="7">
-        <v>48101</v>
+        <v>313828</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>45</v>
@@ -6559,206 +6562,206 @@
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>136194</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>473</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>474</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>475</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>130615</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>476</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>477</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>266809</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>479</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>480</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7">
-        <v>98059</v>
+        <v>33392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H25" s="7">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>92388</v>
+        <v>37047</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="M25" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N25" s="7">
-        <v>190446</v>
+        <v>70439</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>489</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D26" s="7">
-        <v>25878</v>
+        <v>29190</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H26" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I26" s="7">
-        <v>24521</v>
+        <v>33769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>485</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="M26" s="7">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="N26" s="7">
-        <v>50399</v>
+        <v>62958</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>37541</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>490</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>491</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>492</v>
+        <v>339</v>
       </c>
       <c r="H27" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>35442</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>493</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>494</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>495</v>
+        <v>340</v>
       </c>
       <c r="M27" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>72983</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>493</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>497</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,10 +6770,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="D28" s="7">
-        <v>161477</v>
+        <v>198776</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>45</v>
@@ -6782,10 +6785,10 @@
         <v>45</v>
       </c>
       <c r="H28" s="7">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I28" s="7">
-        <v>152351</v>
+        <v>201431</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -6797,10 +6800,10 @@
         <v>45</v>
       </c>
       <c r="M28" s="7">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="N28" s="7">
-        <v>313828</v>
+        <v>400206</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>45</v>
@@ -6816,206 +6819,206 @@
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5">
-        <v>994</v>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>469996</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>499</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>501</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>443719</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>10</v>
+        <v>502</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>913715</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>667</v>
+        <v>168</v>
       </c>
       <c r="D30" s="7">
-        <v>469996</v>
+        <v>115748</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H30" s="7">
-        <v>669</v>
+        <v>162</v>
       </c>
       <c r="I30" s="7">
-        <v>443719</v>
+        <v>107548</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="M30" s="7">
-        <v>1336</v>
+        <v>330</v>
       </c>
       <c r="N30" s="7">
-        <v>913715</v>
+        <v>223296</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>345</v>
+        <v>513</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D31" s="7">
-        <v>115748</v>
+        <v>138348</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="H31" s="7">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="I31" s="7">
-        <v>107548</v>
+        <v>137863</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M31" s="7">
+        <v>407</v>
+      </c>
+      <c r="N31" s="7">
+        <v>276211</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="N31" s="7">
-        <v>223296</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>511</v>
-      </c>
       <c r="P31" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>138348</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>514</v>
+        <v>25</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>515</v>
+        <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>137863</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>517</v>
+        <v>25</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>519</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>276211</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>520</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>521</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,7 +7090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514D6C1C-EB1A-4607-A77E-966222AC4406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660ABB1-DC7D-4F9B-B9F6-5DDDC603305D}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7104,7 +7107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7201,59 +7204,59 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>250186</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" s="7">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>192352</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="7">
-        <v>623</v>
-      </c>
-      <c r="N4" s="7">
-        <v>442538</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -7262,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7277,13 +7280,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7292,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -7313,13 +7316,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7328,13 +7331,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7343,64 +7346,64 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>527</v>
+        <v>45</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>529</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,10 +7412,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -7424,10 +7427,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -7439,10 +7442,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -7458,59 +7461,59 @@
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="5">
-        <v>994</v>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>528</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>530</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>529</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>531</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>530</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -7519,29 +7522,29 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>532</v>
-      </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
@@ -7549,19 +7552,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -7570,29 +7573,29 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>532</v>
-      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
@@ -7600,64 +7603,64 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>114596</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>531</v>
+        <v>45</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>103895</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>533</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>532</v>
+        <v>45</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>218490</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>534</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,61 +7716,61 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="5">
-        <v>994</v>
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>175016</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>535</v>
       </c>
       <c r="H14" s="7">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>171943</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>346958</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>534</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -7776,13 +7779,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>313</v>
+        <v>535</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7791,13 +7794,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7806,19 +7809,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>535</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -7827,13 +7830,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7842,13 +7845,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7857,64 +7860,64 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>250186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>536</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>192352</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>537</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>442538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>535</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,10 +7926,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -7938,10 +7941,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -7953,10 +7956,10 @@
         <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -7972,59 +7975,59 @@
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>536</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>537</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>29485</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -8033,10 +8036,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>539</v>
@@ -8048,13 +8051,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8063,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>540</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -8084,10 +8087,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>539</v>
@@ -8099,13 +8102,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8114,64 +8117,64 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>540</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>173208</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>168735</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>541</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>341943</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>542</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>540</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,10 +8183,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D23" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>45</v>
@@ -8195,10 +8198,10 @@
         <v>45</v>
       </c>
       <c r="H23" s="7">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="I23" s="7">
-        <v>16787</v>
+        <v>168735</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -8210,10 +8213,10 @@
         <v>45</v>
       </c>
       <c r="M23" s="7">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="N23" s="7">
-        <v>29485</v>
+        <v>341943</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>45</v>
@@ -8229,59 +8232,59 @@
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>173208</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>541</v>
+        <v>41</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="H24" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>168735</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>542</v>
+        <v>41</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="M24" s="7">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>341943</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -8290,13 +8293,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>544</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8305,13 +8308,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8320,19 +8323,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8341,13 +8344,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>544</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8356,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8371,64 +8374,64 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>175016</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>11</v>
+        <v>544</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="7">
+        <v>240</v>
+      </c>
+      <c r="I27" s="7">
+        <v>171943</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>346958</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,10 +8440,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D28" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>45</v>
@@ -8452,10 +8455,10 @@
         <v>45</v>
       </c>
       <c r="H28" s="7">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I28" s="7">
-        <v>168735</v>
+        <v>171943</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -8467,10 +8470,10 @@
         <v>45</v>
       </c>
       <c r="M28" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N28" s="7">
-        <v>341943</v>
+        <v>346958</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>45</v>
@@ -8486,59 +8489,59 @@
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5">
-        <v>994</v>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>545</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="H29" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>41</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="M29" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -8547,49 +8550,49 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -8598,94 +8601,94 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>725704</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>548</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>547</v>
+        <v>45</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>653712</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>11</v>
+        <v>548</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>547</v>
+        <v>45</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>1379416</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>548</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP2902-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2902-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83DD4474-F851-4407-AF4F-29D0E648BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB47EB07-1A4A-439F-BC37-CA0B3D7E8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24BBD036-3634-4451-B9A2-950AD21BA4C1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C56EB3E-DB78-42FE-866B-7E9EF85A10C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="483">
   <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2007 (Tasa respuesta: 97,01%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Solo biberon</t>
@@ -76,28 +76,28 @@
     <t>11,83%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
   <si>
     <t>16,22%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
@@ -106,10 +106,10 @@
     <t>17,57%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
   </si>
   <si>
     <t>8,17%</t>
@@ -118,1390 +118,1375 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>24,22%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2015 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
     <t>16,8%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>21,32%</t>
+    <t>21,11%</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>66,67%</t>
   </si>
   <si>
-    <t>62,85%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>14,35%</t>
+    <t>14,24%</t>
   </si>
   <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B8318B-F6BF-4DB5-98D9-E18799632386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB56A1C-9DD0-44CF-AC3B-79955C705CE3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2345,13 +2330,13 @@
         <v>70850</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -2360,13 +2345,13 @@
         <v>71452</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>215</v>
@@ -2375,13 +2360,13 @@
         <v>142302</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,7 +2422,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2449,13 +2434,13 @@
         <v>59007</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -2464,13 +2449,13 @@
         <v>44856</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -2479,13 +2464,13 @@
         <v>103864</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2485,13 @@
         <v>27859</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -2515,13 +2500,13 @@
         <v>25579</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -2530,13 +2515,13 @@
         <v>53438</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2536,13 @@
         <v>121847</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>191</v>
@@ -2566,13 +2551,13 @@
         <v>119610</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>377</v>
@@ -2581,13 +2566,13 @@
         <v>241457</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,7 +2628,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2655,13 +2640,13 @@
         <v>33530</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -2670,13 +2655,13 @@
         <v>36872</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -2685,13 +2670,13 @@
         <v>70402</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2691,13 @@
         <v>18863</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -2721,13 +2706,13 @@
         <v>16002</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -2736,13 +2721,13 @@
         <v>34865</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2742,13 @@
         <v>93972</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>138</v>
@@ -2772,13 +2757,13 @@
         <v>83740</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>284</v>
@@ -2787,13 +2772,13 @@
         <v>177712</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2834,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2861,13 +2846,13 @@
         <v>47414</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -2876,13 +2861,13 @@
         <v>50180</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>134</v>
@@ -2891,13 +2876,13 @@
         <v>97594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2897,13 @@
         <v>21146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2927,13 +2912,13 @@
         <v>16629</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -2942,13 +2927,13 @@
         <v>37775</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2948,13 @@
         <v>129243</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -2978,13 +2963,13 @@
         <v>131515</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -2993,13 +2978,13 @@
         <v>260758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3052,13 @@
         <v>175009</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="H24" s="7">
         <v>241</v>
@@ -3082,28 +3067,28 @@
         <v>160191</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>505</v>
       </c>
       <c r="N24" s="7">
-        <v>335200</v>
+        <v>335201</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3103,13 @@
         <v>92135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -3133,28 +3118,28 @@
         <v>78317</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
       </c>
       <c r="N25" s="7">
-        <v>170451</v>
+        <v>170452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3154,13 @@
         <v>432150</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>629</v>
@@ -3184,28 +3169,28 @@
         <v>422489</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>1281</v>
       </c>
       <c r="N26" s="7">
-        <v>854639</v>
+        <v>854640</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3232,7 @@
         <v>2041</v>
       </c>
       <c r="N27" s="7">
-        <v>1360291</v>
+        <v>1360292</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3261,7 +3246,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71C7D8-FFFF-4301-85FB-26F5327328CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F037116-3875-40B5-8644-88FB495A2129}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3299,7 +3284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3406,13 +3391,13 @@
         <v>5030</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3421,13 +3406,13 @@
         <v>5227</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3436,13 +3421,13 @@
         <v>10257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3442,13 @@
         <v>1352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3472,13 +3457,13 @@
         <v>1522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3487,13 +3472,13 @@
         <v>2874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3493,13 @@
         <v>19073</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -3523,13 +3508,13 @@
         <v>15625</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -3538,13 +3523,13 @@
         <v>34697</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3597,13 @@
         <v>35098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -3627,13 +3612,13 @@
         <v>26866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>87</v>
@@ -3642,13 +3627,13 @@
         <v>61964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3648,13 @@
         <v>13448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3678,13 +3663,13 @@
         <v>7067</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -3693,13 +3678,13 @@
         <v>20515</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3699,13 @@
         <v>75697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -3729,13 +3714,13 @@
         <v>81724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -3744,13 +3729,13 @@
         <v>157420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3791,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3818,13 +3803,13 @@
         <v>70267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -3833,13 +3818,13 @@
         <v>61864</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M12" s="7">
         <v>200</v>
@@ -3848,13 +3833,13 @@
         <v>132131</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3854,13 @@
         <v>18790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3884,13 +3869,13 @@
         <v>22389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -3899,13 +3884,13 @@
         <v>41179</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3905,13 @@
         <v>130427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -3935,13 +3920,13 @@
         <v>118075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>371</v>
@@ -3950,13 +3935,13 @@
         <v>248501</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +3997,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4024,13 +4009,13 @@
         <v>47363</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4039,13 +4024,13 @@
         <v>46857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -4054,13 +4039,13 @@
         <v>94220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4060,13 @@
         <v>22096</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4093,10 +4078,10 @@
         <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4105,13 +4090,13 @@
         <v>40217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4111,13 @@
         <v>94144</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H18" s="7">
         <v>136</v>
@@ -4141,13 +4126,13 @@
         <v>88202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>278</v>
@@ -4156,13 +4141,13 @@
         <v>182346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4203,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4230,13 +4215,13 @@
         <v>76052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -4245,13 +4230,13 @@
         <v>60741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>185</v>
@@ -4260,13 +4245,13 @@
         <v>136793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4266,13 @@
         <v>35834</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>295</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -4296,13 +4281,13 @@
         <v>31927</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
@@ -4311,13 +4296,13 @@
         <v>67760</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4317,13 @@
         <v>94478</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -4347,13 +4332,13 @@
         <v>116151</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>278</v>
@@ -4362,13 +4347,13 @@
         <v>210629</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4421,13 @@
         <v>233811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
         <v>294</v>
@@ -4451,13 +4436,13 @@
         <v>201554</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M24" s="7">
         <v>631</v>
@@ -4466,13 +4451,13 @@
         <v>435365</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4472,13 @@
         <v>91520</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>117</v>
@@ -4502,13 +4487,13 @@
         <v>81025</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="M25" s="7">
         <v>249</v>
@@ -4517,13 +4502,13 @@
         <v>172545</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>82</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4523,13 @@
         <v>413819</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>601</v>
@@ -4553,13 +4538,13 @@
         <v>419776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>1187</v>
@@ -4568,13 +4553,13 @@
         <v>833594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,7 +4615,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4651,7 +4636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3034EA45-0998-46A3-92A5-9106DE078948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85152A5C-00C5-41C6-BA9C-45C7B5F0D0E7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4668,7 +4653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4775,13 +4760,13 @@
         <v>6986</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4790,13 +4775,13 @@
         <v>7536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4805,13 +4790,13 @@
         <v>14521</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,10 +4814,10 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4841,13 +4826,13 @@
         <v>2702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4856,13 +4841,13 @@
         <v>2702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4862,13 @@
         <v>18588</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>356</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -4892,13 +4877,13 @@
         <v>12289</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -4907,13 +4892,13 @@
         <v>30878</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4966,13 @@
         <v>23926</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -4996,13 +4981,13 @@
         <v>21916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5011,13 +4996,13 @@
         <v>45841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5017,13 @@
         <v>18488</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>364</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -5047,13 +5032,13 @@
         <v>15558</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -5062,13 +5047,13 @@
         <v>34046</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5068,13 @@
         <v>76123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5098,13 +5083,13 @@
         <v>70443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>205</v>
@@ -5113,13 +5098,13 @@
         <v>146566</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,7 +5160,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5187,13 +5172,13 @@
         <v>40707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>63</v>
@@ -5202,13 +5187,13 @@
         <v>39200</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -5217,13 +5202,13 @@
         <v>79907</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>206</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5223,13 @@
         <v>37990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -5253,13 +5238,13 @@
         <v>27719</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5268,13 +5253,13 @@
         <v>65709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5274,13 @@
         <v>141032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>222</v>
@@ -5304,13 +5289,13 @@
         <v>137984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>429</v>
@@ -5319,13 +5304,13 @@
         <v>279016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,7 +5366,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5393,13 +5378,13 @@
         <v>37541</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5408,13 +5393,13 @@
         <v>35442</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -5423,13 +5408,13 @@
         <v>72983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5429,13 @@
         <v>25878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5459,13 +5444,13 @@
         <v>24521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -5474,13 +5459,13 @@
         <v>50399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5480,13 @@
         <v>98059</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H18" s="7">
         <v>155</v>
@@ -5510,13 +5495,13 @@
         <v>92388</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M18" s="7">
         <v>300</v>
@@ -5525,13 +5510,13 @@
         <v>190446</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,7 +5572,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5599,13 +5584,13 @@
         <v>29190</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -5614,13 +5599,13 @@
         <v>33769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>86</v>
@@ -5629,13 +5614,13 @@
         <v>62958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5635,13 @@
         <v>33392</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -5665,13 +5650,13 @@
         <v>37047</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -5680,13 +5665,13 @@
         <v>70439</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5686,13 @@
         <v>136194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5716,13 +5701,13 @@
         <v>130615</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
@@ -5731,13 +5716,13 @@
         <v>266809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5790,13 @@
         <v>138348</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H24" s="7">
         <v>207</v>
@@ -5820,13 +5805,13 @@
         <v>137863</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>407</v>
@@ -5835,13 +5820,13 @@
         <v>276211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>469</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5841,13 @@
         <v>115748</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>472</v>
+        <v>388</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -5871,13 +5856,13 @@
         <v>107548</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>330</v>
@@ -5886,13 +5871,13 @@
         <v>223296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5892,13 @@
         <v>469996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -5922,13 +5907,13 @@
         <v>443719</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>1336</v>
@@ -5937,13 +5922,13 @@
         <v>913715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,7 +5984,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2902-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2902-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB47EB07-1A4A-439F-BC37-CA0B3D7E8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED37411-14B9-4606-B943-43AFFE52239A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C56EB3E-DB78-42FE-866B-7E9EF85A10C1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5AA39DEB-20BF-449C-9FD5-34985D1B123B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="405">
   <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2007 (Tasa respuesta: 97,01%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,1426 +67,1192 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Solo biberon</t>
   </si>
   <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2016 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>14,24%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
   </si>
   <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>66,84%</t>
   </si>
 </sst>
 </file>
@@ -1898,8 +1664,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB56A1C-9DD0-44CF-AC3B-79955C705CE3}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0F024C-33EB-40DD-A032-C104293C5314}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2016,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>2722</v>
+        <v>28283</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2031,10 +1797,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>4695</v>
+        <v>35058</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2046,10 +1812,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N4" s="7">
-        <v>7417</v>
+        <v>63341</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2067,10 +1833,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>4042</v>
+        <v>20107</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2082,10 +1848,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>1858</v>
+        <v>24267</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2097,10 +1863,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="N5" s="7">
-        <v>5900</v>
+        <v>44374</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2118,10 +1884,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7">
-        <v>16239</v>
+        <v>87624</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2133,10 +1899,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I6" s="7">
-        <v>16171</v>
+        <v>87089</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2148,10 +1914,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="N6" s="7">
-        <v>32410</v>
+        <v>174713</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2169,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="D7" s="7">
-        <v>23003</v>
+        <v>136014</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2184,10 +1950,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="I7" s="7">
-        <v>22724</v>
+        <v>146414</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2199,10 +1965,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>59</v>
+        <v>416</v>
       </c>
       <c r="N7" s="7">
-        <v>45727</v>
+        <v>282428</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2222,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7">
-        <v>32336</v>
+        <v>44856</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2237,10 +2003,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I8" s="7">
-        <v>23588</v>
+        <v>59007</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2252,10 +2018,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="N8" s="7">
-        <v>55924</v>
+        <v>103864</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2273,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>20225</v>
+        <v>25579</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2288,10 +2054,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>18250</v>
+        <v>27859</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2303,10 +2069,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="N9" s="7">
-        <v>38474</v>
+        <v>53438</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2324,49 +2090,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="D10" s="7">
-        <v>70850</v>
+        <v>119610</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="I10" s="7">
-        <v>71452</v>
+        <v>121847</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>215</v>
+        <v>377</v>
       </c>
       <c r="N10" s="7">
-        <v>142302</v>
+        <v>241457</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>123411</v>
+        <v>190045</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2390,10 +2156,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>170</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>113290</v>
+        <v>208713</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2405,10 +2171,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>357</v>
+        <v>621</v>
       </c>
       <c r="N11" s="7">
-        <v>236701</v>
+        <v>398758</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2422,55 +2188,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>59007</v>
+        <v>36872</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>44856</v>
+        <v>33530</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="N12" s="7">
-        <v>103864</v>
+        <v>70402</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,49 +2245,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>27859</v>
+        <v>16002</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>25579</v>
+        <v>18863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>53438</v>
+        <v>34865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,49 +2296,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="D14" s="7">
-        <v>121847</v>
+        <v>83740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="I14" s="7">
-        <v>119610</v>
+        <v>93972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="N14" s="7">
-        <v>241457</v>
+        <v>177712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,10 +2347,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>208713</v>
+        <v>136614</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2596,10 +2362,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="I15" s="7">
-        <v>190045</v>
+        <v>146365</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2611,10 +2377,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>621</v>
+        <v>454</v>
       </c>
       <c r="N15" s="7">
-        <v>398758</v>
+        <v>282979</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2628,55 +2394,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7">
-        <v>33530</v>
+        <v>50180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>36872</v>
+        <v>47414</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="N16" s="7">
-        <v>70402</v>
+        <v>97594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,49 +2451,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>18863</v>
+        <v>16629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>16002</v>
+        <v>21146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>34865</v>
+        <v>37775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,49 +2502,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D18" s="7">
-        <v>93972</v>
+        <v>131515</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="I18" s="7">
-        <v>83740</v>
+        <v>129243</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="N18" s="7">
-        <v>177712</v>
+        <v>260758</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="D19" s="7">
-        <v>146365</v>
+        <v>198324</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2802,10 +2568,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="I19" s="7">
-        <v>136614</v>
+        <v>197803</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2817,10 +2583,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>454</v>
+        <v>550</v>
       </c>
       <c r="N19" s="7">
-        <v>282979</v>
+        <v>396127</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2834,49 +2600,49 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>47414</v>
+        <v>160191</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="I20" s="7">
-        <v>50180</v>
+        <v>175009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
-        <v>134</v>
+        <v>505</v>
       </c>
       <c r="N20" s="7">
-        <v>97594</v>
+        <v>335200</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>130</v>
@@ -2891,10 +2657,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>21146</v>
+        <v>78317</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>132</v>
@@ -2906,10 +2672,10 @@
         <v>134</v>
       </c>
       <c r="H21" s="7">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>16629</v>
+        <v>92135</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>135</v>
@@ -2921,19 +2687,19 @@
         <v>137</v>
       </c>
       <c r="M21" s="7">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="N21" s="7">
-        <v>37775</v>
+        <v>170451</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,49 +2708,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>191</v>
+        <v>629</v>
       </c>
       <c r="D22" s="7">
-        <v>129243</v>
+        <v>422489</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
-        <v>172</v>
+        <v>652</v>
       </c>
       <c r="I22" s="7">
-        <v>131515</v>
+        <v>432150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
-        <v>363</v>
+        <v>1281</v>
       </c>
       <c r="N22" s="7">
-        <v>260758</v>
+        <v>854639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,10 +2759,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>291</v>
+        <v>989</v>
       </c>
       <c r="D23" s="7">
-        <v>197803</v>
+        <v>660997</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3008,10 +2774,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>259</v>
+        <v>1052</v>
       </c>
       <c r="I23" s="7">
-        <v>198324</v>
+        <v>699294</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3023,10 +2789,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>550</v>
+        <v>2041</v>
       </c>
       <c r="N23" s="7">
-        <v>396127</v>
+        <v>1360291</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3039,222 +2805,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>264</v>
-      </c>
-      <c r="D24" s="7">
-        <v>175009</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="A24" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="7">
-        <v>241</v>
-      </c>
-      <c r="I24" s="7">
-        <v>160191</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M24" s="7">
-        <v>505</v>
-      </c>
-      <c r="N24" s="7">
-        <v>335201</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>136</v>
-      </c>
-      <c r="D25" s="7">
-        <v>92135</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="7">
-        <v>119</v>
-      </c>
-      <c r="I25" s="7">
-        <v>78317</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M25" s="7">
-        <v>255</v>
-      </c>
-      <c r="N25" s="7">
-        <v>170452</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>652</v>
-      </c>
-      <c r="D26" s="7">
-        <v>432150</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="7">
-        <v>629</v>
-      </c>
-      <c r="I26" s="7">
-        <v>422489</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1281</v>
-      </c>
-      <c r="N26" s="7">
-        <v>854640</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1052</v>
-      </c>
-      <c r="D27" s="7">
-        <v>699294</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>989</v>
-      </c>
-      <c r="I27" s="7">
-        <v>660997</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2041</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1360292</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>174</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3267,8 +2826,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F037116-3875-40B5-8644-88FB495A2129}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443FBC9B-6D92-486A-8E86-3014DAE106BF}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3284,7 +2843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3385,49 +2944,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>5030</v>
+        <v>32092</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7">
-        <v>5227</v>
+        <v>40128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="N4" s="7">
-        <v>10257</v>
+        <v>72221</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,49 +2995,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>1352</v>
+        <v>8588</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>1522</v>
+        <v>14801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>2874</v>
+        <v>23389</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,49 +3046,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7">
-        <v>19073</v>
+        <v>97348</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>15625</v>
+        <v>94769</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="N6" s="7">
-        <v>34697</v>
+        <v>192118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>138029</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3553,10 +3112,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>149698</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3568,10 +3127,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>392</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>287727</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3591,49 +3150,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D8" s="7">
-        <v>35098</v>
+        <v>61864</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="7">
+        <v>103</v>
+      </c>
+      <c r="I8" s="7">
+        <v>70267</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" s="7">
         <v>200</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="7">
-        <v>37</v>
-      </c>
-      <c r="I8" s="7">
-        <v>26866</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M8" s="7">
-        <v>87</v>
-      </c>
       <c r="N8" s="7">
-        <v>61964</v>
+        <v>132131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,49 +3201,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>13448</v>
+        <v>22389</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>7067</v>
+        <v>18790</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>20515</v>
+        <v>41179</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,49 +3252,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7">
-        <v>75697</v>
+        <v>118075</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="I10" s="7">
-        <v>81724</v>
+        <v>130427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>221</v>
+        <v>371</v>
       </c>
       <c r="N10" s="7">
-        <v>157420</v>
+        <v>248501</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,10 +3303,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>124243</v>
+        <v>202328</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3759,10 +3318,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="I11" s="7">
-        <v>115656</v>
+        <v>219485</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3774,10 +3333,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>338</v>
+        <v>631</v>
       </c>
       <c r="N11" s="7">
-        <v>239899</v>
+        <v>421812</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3791,55 +3350,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>70267</v>
+        <v>46857</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>61864</v>
+        <v>47363</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="N12" s="7">
-        <v>132131</v>
+        <v>94220</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,49 +3407,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>18790</v>
+        <v>18121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>22389</v>
+        <v>22096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>41179</v>
+        <v>40217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,49 +3458,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="D14" s="7">
-        <v>130427</v>
+        <v>88202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="I14" s="7">
-        <v>118075</v>
+        <v>94144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>371</v>
+        <v>278</v>
       </c>
       <c r="N14" s="7">
-        <v>248501</v>
+        <v>182346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,10 +3509,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>219485</v>
+        <v>153180</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3965,10 +3524,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="I15" s="7">
-        <v>202328</v>
+        <v>163603</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3980,10 +3539,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>631</v>
+        <v>491</v>
       </c>
       <c r="N15" s="7">
-        <v>421812</v>
+        <v>316783</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3997,55 +3556,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>47363</v>
+        <v>60741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I16" s="7">
-        <v>46857</v>
+        <v>76052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="N16" s="7">
-        <v>94220</v>
+        <v>136793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,49 +3613,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>22096</v>
+        <v>31927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>18121</v>
+        <v>35834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N17" s="7">
-        <v>40217</v>
+        <v>67760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,49 +3664,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D18" s="7">
-        <v>94144</v>
+        <v>116151</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="H18" s="7">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I18" s="7">
-        <v>88202</v>
+        <v>94478</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>278</v>
       </c>
       <c r="N18" s="7">
-        <v>182346</v>
+        <v>210629</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,10 +3715,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D19" s="7">
-        <v>163603</v>
+        <v>208818</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4171,10 +3730,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="I19" s="7">
-        <v>153180</v>
+        <v>206364</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4186,10 +3745,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="N19" s="7">
-        <v>316783</v>
+        <v>415182</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4203,55 +3762,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="D20" s="7">
-        <v>76052</v>
+        <v>201554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="I20" s="7">
-        <v>60741</v>
+        <v>233811</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>185</v>
+        <v>631</v>
       </c>
       <c r="N20" s="7">
-        <v>136793</v>
+        <v>435365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,49 +3819,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D21" s="7">
-        <v>35834</v>
+        <v>81025</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I21" s="7">
-        <v>31927</v>
+        <v>91520</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="N21" s="7">
-        <v>67760</v>
+        <v>172545</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,49 +3870,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="D22" s="7">
-        <v>94478</v>
+        <v>419776</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>151</v>
+        <v>586</v>
       </c>
       <c r="I22" s="7">
-        <v>116151</v>
+        <v>413819</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
+        <v>1187</v>
+      </c>
+      <c r="N22" s="7">
+        <v>833594</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="N22" s="7">
-        <v>210629</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,10 +3921,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>280</v>
+        <v>1012</v>
       </c>
       <c r="D23" s="7">
-        <v>206364</v>
+        <v>702355</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4377,10 +3936,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>273</v>
+        <v>1055</v>
       </c>
       <c r="I23" s="7">
-        <v>208818</v>
+        <v>739150</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4392,10 +3951,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>553</v>
+        <v>2067</v>
       </c>
       <c r="N23" s="7">
-        <v>415182</v>
+        <v>1441504</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4408,222 +3967,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>337</v>
-      </c>
-      <c r="D24" s="7">
-        <v>233811</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H24" s="7">
-        <v>294</v>
-      </c>
-      <c r="I24" s="7">
-        <v>201554</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M24" s="7">
-        <v>631</v>
-      </c>
-      <c r="N24" s="7">
-        <v>435365</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>132</v>
-      </c>
-      <c r="D25" s="7">
-        <v>91520</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H25" s="7">
-        <v>117</v>
-      </c>
-      <c r="I25" s="7">
-        <v>81025</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M25" s="7">
-        <v>249</v>
-      </c>
-      <c r="N25" s="7">
-        <v>172545</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>586</v>
-      </c>
-      <c r="D26" s="7">
-        <v>413819</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H26" s="7">
-        <v>601</v>
-      </c>
-      <c r="I26" s="7">
-        <v>419776</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1187</v>
-      </c>
-      <c r="N26" s="7">
-        <v>833594</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1055</v>
-      </c>
-      <c r="D27" s="7">
-        <v>739150</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1012</v>
-      </c>
-      <c r="I27" s="7">
-        <v>702355</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2067</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1441504</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>174</v>
+      <c r="A24" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4636,8 +3988,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85152A5C-00C5-41C6-BA9C-45C7B5F0D0E7}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5846DE30-E153-463D-A3EA-0B2AB07008AA}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4653,7 +4005,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4754,49 +4106,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>6986</v>
+        <v>29451</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>7536</v>
+        <v>30911</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="N4" s="7">
-        <v>14521</v>
+        <v>60363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>18260</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
       <c r="I5" s="7">
-        <v>2702</v>
+        <v>18488</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>2702</v>
+        <v>36748</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,49 +4208,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>18588</v>
+        <v>82732</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I6" s="7">
-        <v>12289</v>
+        <v>94712</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N6" s="7">
-        <v>30878</v>
+        <v>177444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,10 +4259,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>130444</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4922,10 +4274,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="I7" s="7">
-        <v>22527</v>
+        <v>144111</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4937,10 +4289,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>372</v>
       </c>
       <c r="N7" s="7">
-        <v>48101</v>
+        <v>274555</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4960,49 +4312,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>23926</v>
+        <v>39200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I8" s="7">
-        <v>21916</v>
+        <v>40707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="N8" s="7">
-        <v>45841</v>
+        <v>79907</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,49 +4363,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>18488</v>
+        <v>27719</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>15558</v>
+        <v>37990</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>367</v>
+        <v>140</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="N9" s="7">
-        <v>34046</v>
+        <v>65709</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,49 +4414,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="D10" s="7">
-        <v>76123</v>
+        <v>137984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="I10" s="7">
-        <v>70443</v>
+        <v>141032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="N10" s="7">
-        <v>146566</v>
+        <v>279016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>118537</v>
+        <v>204904</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5128,10 +4480,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="I11" s="7">
-        <v>107917</v>
+        <v>219728</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5143,10 +4495,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>318</v>
+        <v>655</v>
       </c>
       <c r="N11" s="7">
-        <v>226454</v>
+        <v>424632</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5160,55 +4512,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>40707</v>
+        <v>35442</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="H12" s="7">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I12" s="7">
-        <v>39200</v>
+        <v>37541</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N12" s="7">
-        <v>79907</v>
+        <v>72983</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>37990</v>
+        <v>24521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>27719</v>
+        <v>25878</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>65709</v>
+        <v>50399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4620,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="D14" s="7">
-        <v>141032</v>
+        <v>92388</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="I14" s="7">
-        <v>137984</v>
+        <v>98059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="N14" s="7">
-        <v>279016</v>
+        <v>190446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4671,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="D15" s="7">
-        <v>219728</v>
+        <v>152351</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5334,10 +4686,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="I15" s="7">
-        <v>204904</v>
+        <v>161477</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5349,10 +4701,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>655</v>
+        <v>493</v>
       </c>
       <c r="N15" s="7">
-        <v>424632</v>
+        <v>313828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5366,55 +4718,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>37541</v>
+        <v>33769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7">
-        <v>35442</v>
+        <v>29190</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="N16" s="7">
-        <v>72983</v>
+        <v>62958</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4775,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>25878</v>
+        <v>37047</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>24521</v>
+        <v>33392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N17" s="7">
-        <v>50399</v>
+        <v>70439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,49 +4826,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D18" s="7">
-        <v>98059</v>
+        <v>130615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="I18" s="7">
-        <v>92388</v>
+        <v>136194</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="N18" s="7">
-        <v>190446</v>
+        <v>266809</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,10 +4877,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="D19" s="7">
-        <v>161477</v>
+        <v>201431</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5540,10 +4892,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="I19" s="7">
-        <v>152351</v>
+        <v>198776</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5555,10 +4907,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="N19" s="7">
-        <v>313828</v>
+        <v>400206</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5572,55 +4924,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="D20" s="7">
-        <v>29190</v>
+        <v>137863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="I20" s="7">
-        <v>33769</v>
+        <v>138348</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
-        <v>86</v>
+        <v>407</v>
       </c>
       <c r="N20" s="7">
-        <v>62958</v>
+        <v>276211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,49 +4981,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="D21" s="7">
-        <v>33392</v>
+        <v>107548</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="H21" s="7">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>37047</v>
+        <v>115748</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="M21" s="7">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="N21" s="7">
-        <v>70439</v>
+        <v>223296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,49 +5032,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>191</v>
+        <v>669</v>
       </c>
       <c r="D22" s="7">
-        <v>136194</v>
+        <v>443719</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
-        <v>176</v>
+        <v>667</v>
       </c>
       <c r="I22" s="7">
-        <v>130615</v>
+        <v>469996</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
-        <v>367</v>
+        <v>1336</v>
       </c>
       <c r="N22" s="7">
-        <v>266809</v>
+        <v>913715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>280</v>
+        <v>1038</v>
       </c>
       <c r="D23" s="7">
-        <v>198776</v>
+        <v>689130</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -5746,10 +5098,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>273</v>
+        <v>1035</v>
       </c>
       <c r="I23" s="7">
-        <v>201431</v>
+        <v>724092</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5761,10 +5113,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>553</v>
+        <v>2073</v>
       </c>
       <c r="N23" s="7">
-        <v>400206</v>
+        <v>1413222</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5777,222 +5129,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>200</v>
-      </c>
-      <c r="D24" s="7">
-        <v>138348</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H24" s="7">
-        <v>207</v>
-      </c>
-      <c r="I24" s="7">
-        <v>137863</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="M24" s="7">
-        <v>407</v>
-      </c>
-      <c r="N24" s="7">
-        <v>276211</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>168</v>
-      </c>
-      <c r="D25" s="7">
-        <v>115748</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H25" s="7">
-        <v>162</v>
-      </c>
-      <c r="I25" s="7">
-        <v>107548</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="M25" s="7">
-        <v>330</v>
-      </c>
-      <c r="N25" s="7">
-        <v>223296</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>667</v>
-      </c>
-      <c r="D26" s="7">
-        <v>469996</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H26" s="7">
-        <v>669</v>
-      </c>
-      <c r="I26" s="7">
-        <v>443719</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1336</v>
-      </c>
-      <c r="N26" s="7">
-        <v>913715</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1035</v>
-      </c>
-      <c r="D27" s="7">
-        <v>724092</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1038</v>
-      </c>
-      <c r="I27" s="7">
-        <v>689130</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2073</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1413222</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>174</v>
+      <c r="A24" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
